--- a/learning_curves_comparison.xlsx
+++ b/learning_curves_comparison.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.52859115600586</v>
+        <v>280.0605773925781</v>
       </c>
       <c r="D2" t="n">
-        <v>7.584760665893555</v>
+        <v>16.73501014709473</v>
       </c>
       <c r="E2" t="n">
-        <v>5.964481353759766</v>
+        <v>3.49083399772644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329714298248291</v>
+        <v>2.933542966842651</v>
       </c>
       <c r="G2" t="n">
-        <v>786.5835571289062</v>
+        <v>544.7871704101562</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.82429504394531</v>
+        <v>150.0047912597656</v>
       </c>
       <c r="D3" t="n">
-        <v>7.604228973388672</v>
+        <v>12.24764442443848</v>
       </c>
       <c r="E3" t="n">
-        <v>5.957710266113281</v>
+        <v>2.730166435241699</v>
       </c>
       <c r="F3" t="n">
-        <v>5.323838233947754</v>
+        <v>2.187620878219604</v>
       </c>
       <c r="G3" t="n">
-        <v>775.7833862304688</v>
+        <v>174.3735198974609</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59.07003402709961</v>
+        <v>150.1257019042969</v>
       </c>
       <c r="D4" t="n">
-        <v>7.685703277587891</v>
+        <v>12.25257968902588</v>
       </c>
       <c r="E4" t="n">
-        <v>6.011022567749023</v>
+        <v>2.744738817214966</v>
       </c>
       <c r="F4" t="n">
-        <v>5.379878044128418</v>
+        <v>2.203928232192993</v>
       </c>
       <c r="G4" t="n">
-        <v>767.424560546875</v>
+        <v>172.7431793212891</v>
       </c>
     </row>
     <row r="5">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.48566055297852</v>
+        <v>150.2710723876953</v>
       </c>
       <c r="D5" t="n">
-        <v>7.647591590881348</v>
+        <v>12.25851058959961</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98365306854248</v>
+        <v>2.759396553039551</v>
       </c>
       <c r="F5" t="n">
-        <v>5.349294662475586</v>
+        <v>2.220738887786865</v>
       </c>
       <c r="G5" t="n">
-        <v>763.4951171875</v>
+        <v>167.4551544189453</v>
       </c>
     </row>
     <row r="6">
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59.09028244018555</v>
+        <v>150.3959808349609</v>
       </c>
       <c r="D6" t="n">
-        <v>7.687020301818848</v>
+        <v>12.26360416412354</v>
       </c>
       <c r="E6" t="n">
-        <v>6.018122673034668</v>
+        <v>2.774692296981812</v>
       </c>
       <c r="F6" t="n">
-        <v>5.386398315429688</v>
+        <v>2.235890865325928</v>
       </c>
       <c r="G6" t="n">
-        <v>771.8588256835938</v>
+        <v>163.2661285400391</v>
       </c>
     </row>
     <row r="7">
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.99947357177734</v>
+        <v>150.7183532714844</v>
       </c>
       <c r="D7" t="n">
-        <v>7.681111335754395</v>
+        <v>12.27674007415771</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0091233253479</v>
+        <v>2.812193393707275</v>
       </c>
       <c r="F7" t="n">
-        <v>5.376384258270264</v>
+        <v>2.276317834854126</v>
       </c>
       <c r="G7" t="n">
-        <v>768.4282836914062</v>
+        <v>159.3213043212891</v>
       </c>
     </row>
     <row r="8">
@@ -634,19 +634,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.40154647827148</v>
+        <v>150.7431030273438</v>
       </c>
       <c r="D8" t="n">
-        <v>7.707240104675293</v>
+        <v>12.27774810791016</v>
       </c>
       <c r="E8" t="n">
-        <v>6.030592918395996</v>
+        <v>2.807119131088257</v>
       </c>
       <c r="F8" t="n">
-        <v>5.397191524505615</v>
+        <v>2.276042938232422</v>
       </c>
       <c r="G8" t="n">
-        <v>761.93994140625</v>
+        <v>156.8683013916016</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58.76983261108398</v>
+        <v>7.424522876739502</v>
       </c>
       <c r="D9" t="n">
-        <v>7.666148662567139</v>
+        <v>2.72479772567749</v>
       </c>
       <c r="E9" t="n">
-        <v>5.988506317138672</v>
+        <v>2.008948802947998</v>
       </c>
       <c r="F9" t="n">
-        <v>5.357807159423828</v>
+        <v>1.476744294166565</v>
       </c>
       <c r="G9" t="n">
-        <v>768.1864013671875</v>
+        <v>122.4379653930664</v>
       </c>
     </row>
     <row r="10">
@@ -684,19 +684,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59.43831253051758</v>
+        <v>7.384943962097168</v>
       </c>
       <c r="D10" t="n">
-        <v>7.709624767303467</v>
+        <v>2.717525243759155</v>
       </c>
       <c r="E10" t="n">
-        <v>6.03599214553833</v>
+        <v>2.00717830657959</v>
       </c>
       <c r="F10" t="n">
-        <v>5.402140617370605</v>
+        <v>1.474212288856506</v>
       </c>
       <c r="G10" t="n">
-        <v>756.9255981445312</v>
+        <v>122.0193862915039</v>
       </c>
     </row>
     <row r="11">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58.50399780273438</v>
+        <v>7.341734886169434</v>
       </c>
       <c r="D11" t="n">
-        <v>7.648790836334229</v>
+        <v>2.709563493728638</v>
       </c>
       <c r="E11" t="n">
-        <v>5.984038829803467</v>
+        <v>2.007236957550049</v>
       </c>
       <c r="F11" t="n">
-        <v>5.352433204650879</v>
+        <v>1.472895383834839</v>
       </c>
       <c r="G11" t="n">
-        <v>772.7246704101562</v>
+        <v>121.5844497680664</v>
       </c>
     </row>
     <row r="12">
@@ -734,19 +734,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>59.90903472900391</v>
+        <v>7.284844875335693</v>
       </c>
       <c r="D12" t="n">
-        <v>7.740092754364014</v>
+        <v>2.699045181274414</v>
       </c>
       <c r="E12" t="n">
-        <v>6.060521125793457</v>
+        <v>2.006901741027832</v>
       </c>
       <c r="F12" t="n">
-        <v>5.427572727203369</v>
+        <v>1.471002459526062</v>
       </c>
       <c r="G12" t="n">
-        <v>760.08984375</v>
+        <v>121.1127166748047</v>
       </c>
     </row>
     <row r="13">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>58.22268295288086</v>
+        <v>7.235386848449707</v>
       </c>
       <c r="D13" t="n">
-        <v>7.630378723144531</v>
+        <v>2.689867496490479</v>
       </c>
       <c r="E13" t="n">
-        <v>5.975080013275146</v>
+        <v>2.008445739746094</v>
       </c>
       <c r="F13" t="n">
-        <v>5.341958999633789</v>
+        <v>1.470181941986084</v>
       </c>
       <c r="G13" t="n">
-        <v>762.8970336914062</v>
+        <v>120.6348876953125</v>
       </c>
     </row>
     <row r="14">
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59.30556488037109</v>
+        <v>7.176940441131592</v>
       </c>
       <c r="D14" t="n">
-        <v>7.701010704040527</v>
+        <v>2.678981304168701</v>
       </c>
       <c r="E14" t="n">
-        <v>6.026811599731445</v>
+        <v>2.008659839630127</v>
       </c>
       <c r="F14" t="n">
-        <v>5.394780158996582</v>
+        <v>1.469298243522644</v>
       </c>
       <c r="G14" t="n">
-        <v>764.6288452148438</v>
+        <v>120.0221481323242</v>
       </c>
     </row>
     <row r="15">
@@ -809,19 +809,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58.44125366210938</v>
+        <v>7.151268005371094</v>
       </c>
       <c r="D15" t="n">
-        <v>7.644688129425049</v>
+        <v>2.674185514450073</v>
       </c>
       <c r="E15" t="n">
-        <v>5.986776828765869</v>
+        <v>2.012923240661621</v>
       </c>
       <c r="F15" t="n">
-        <v>5.353711605072021</v>
+        <v>1.474267840385437</v>
       </c>
       <c r="G15" t="n">
-        <v>764.45458984375</v>
+        <v>119.1596450805664</v>
       </c>
     </row>
     <row r="16">
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.37687683105469</v>
+        <v>7.016410827636719</v>
       </c>
       <c r="D16" t="n">
-        <v>7.705639362335205</v>
+        <v>2.648850917816162</v>
       </c>
       <c r="E16" t="n">
-        <v>6.022142887115479</v>
+        <v>1.997547745704651</v>
       </c>
       <c r="F16" t="n">
-        <v>5.390838623046875</v>
+        <v>1.459775805473328</v>
       </c>
       <c r="G16" t="n">
-        <v>769.5086669921875</v>
+        <v>118.9248046875</v>
       </c>
     </row>
     <row r="17">
@@ -859,19 +859,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59.55955505371094</v>
+        <v>6.900233268737793</v>
       </c>
       <c r="D17" t="n">
-        <v>7.717483520507812</v>
+        <v>2.626829624176025</v>
       </c>
       <c r="E17" t="n">
-        <v>6.028088569641113</v>
+        <v>1.988982319831848</v>
       </c>
       <c r="F17" t="n">
-        <v>5.395823001861572</v>
+        <v>1.450233221054077</v>
       </c>
       <c r="G17" t="n">
-        <v>761.7804565429688</v>
+        <v>118.4551162719727</v>
       </c>
     </row>
     <row r="18">
@@ -884,19 +884,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58.41030883789062</v>
+        <v>6.831014633178711</v>
       </c>
       <c r="D18" t="n">
-        <v>7.642663955688477</v>
+        <v>2.61362099647522</v>
       </c>
       <c r="E18" t="n">
-        <v>5.982523918151855</v>
+        <v>1.990181446075439</v>
       </c>
       <c r="F18" t="n">
-        <v>5.350607872009277</v>
+        <v>1.45256769657135</v>
       </c>
       <c r="G18" t="n">
-        <v>765.90576171875</v>
+        <v>117.4311981201172</v>
       </c>
     </row>
     <row r="19">
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60.13325881958008</v>
+        <v>6.609583854675293</v>
       </c>
       <c r="D19" t="n">
-        <v>7.754563808441162</v>
+        <v>2.570911169052124</v>
       </c>
       <c r="E19" t="n">
-        <v>6.053352832794189</v>
+        <v>1.961225867271423</v>
       </c>
       <c r="F19" t="n">
-        <v>5.423003673553467</v>
+        <v>1.424794912338257</v>
       </c>
       <c r="G19" t="n">
-        <v>765.4804077148438</v>
+        <v>117.0864715576172</v>
       </c>
     </row>
     <row r="20">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>58.34757995605469</v>
+        <v>6.52611255645752</v>
       </c>
       <c r="D20" t="n">
-        <v>7.638558864593506</v>
+        <v>2.554625749588013</v>
       </c>
       <c r="E20" t="n">
-        <v>5.98728609085083</v>
+        <v>1.955780386924744</v>
       </c>
       <c r="F20" t="n">
-        <v>5.355550765991211</v>
+        <v>1.421692967414856</v>
       </c>
       <c r="G20" t="n">
-        <v>763.1978759765625</v>
+        <v>116.0915832519531</v>
       </c>
     </row>
     <row r="21">
@@ -959,19 +959,769 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59.68807983398438</v>
+        <v>6.501579761505127</v>
       </c>
       <c r="D21" t="n">
-        <v>7.72580623626709</v>
+        <v>2.549819469451904</v>
       </c>
       <c r="E21" t="n">
-        <v>6.040722846984863</v>
+        <v>1.957259178161621</v>
       </c>
       <c r="F21" t="n">
-        <v>5.408241748809814</v>
+        <v>1.426003456115723</v>
       </c>
       <c r="G21" t="n">
-        <v>766.4862670898438</v>
+        <v>114.8589706420898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.419912338256836</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.533754587173462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.943055033683777</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.409253835678101</v>
+      </c>
+      <c r="G22" t="n">
+        <v>111.5265960693359</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6.448787212371826</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.539446353912354</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.952520370483398</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.416404485702515</v>
+      </c>
+      <c r="G23" t="n">
+        <v>107.7646560668945</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6.440962791442871</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.537905216217041</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.947134852409363</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.416537404060364</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105.77734375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.281299591064453</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.50625205039978</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.91784930229187</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.387410283088684</v>
+      </c>
+      <c r="G25" t="n">
+        <v>106.0965347290039</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6.314374923706055</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.512841939926147</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.92530882358551</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.395484685897827</v>
+      </c>
+      <c r="G26" t="n">
+        <v>105.2205963134766</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.259522914886475</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.501903772354126</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.914552092552185</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.386685132980347</v>
+      </c>
+      <c r="G27" t="n">
+        <v>104.8655700683594</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6.179689884185791</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.48589825630188</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.902326345443726</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.373180985450745</v>
+      </c>
+      <c r="G28" t="n">
+        <v>105.9141693115234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6.195885181427002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.489153623580933</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.904183268547058</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.3774174451828</v>
+      </c>
+      <c r="G29" t="n">
+        <v>104.9830322265625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.137424945831299</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.477382659912109</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.896874189376831</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.370891928672791</v>
+      </c>
+      <c r="G30" t="n">
+        <v>104.6767578125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6.094417572021484</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.468687534332275</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.889596581459045</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.364329695701599</v>
+      </c>
+      <c r="G31" t="n">
+        <v>104.5303497314453</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.105673313140869</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.470966100692749</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.893757462501526</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.368438243865967</v>
+      </c>
+      <c r="G32" t="n">
+        <v>104.4192199707031</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6.015051364898682</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.452560186386108</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.884066820144653</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.357246160507202</v>
+      </c>
+      <c r="G33" t="n">
+        <v>104.1395416259766</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6.038191795349121</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.457273244857788</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.893142223358154</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.364235162734985</v>
+      </c>
+      <c r="G34" t="n">
+        <v>103.6670532226562</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6.050405979156494</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.459757328033447</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.897104501724243</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.369113683700562</v>
+      </c>
+      <c r="G35" t="n">
+        <v>103.0674438476562</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5.892818450927734</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.427512884140015</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.872473955154419</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.342429757118225</v>
+      </c>
+      <c r="G36" t="n">
+        <v>103.3839416503906</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5.969971656799316</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.443352460861206</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.887930750846863</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.357291340827942</v>
+      </c>
+      <c r="G37" t="n">
+        <v>102.4262542724609</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.040505409240723</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.457743883132935</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.90192449092865</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.371135234832764</v>
+      </c>
+      <c r="G38" t="n">
+        <v>101.6566925048828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5.92039966583252</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.433187246322632</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.880488395690918</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.348253726959229</v>
+      </c>
+      <c r="G39" t="n">
+        <v>102.2930068969727</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5.95863151550293</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.441030740737915</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.885619044303894</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.352526068687439</v>
+      </c>
+      <c r="G40" t="n">
+        <v>101.8999099731445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5.997669696807861</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.449013948440552</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.89113986492157</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.358729362487793</v>
+      </c>
+      <c r="G41" t="n">
+        <v>101.2347869873047</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5.99889087677002</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.449263334274292</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.886891603469849</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.354034900665283</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100.9354858398438</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6.0402512550354</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.45769214630127</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.888585329055786</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.357439279556274</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100.717041015625</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6.00429630279541</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.450366497039795</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.880672454833984</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.350198149681091</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100.6810913085938</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5.99393367767334</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.448251247406006</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.879225492477417</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.348219871520996</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100.5376892089844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6.069393157958984</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.463613748550415</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.892876029014587</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.362664103507996</v>
+      </c>
+      <c r="G46" t="n">
+        <v>99.94697570800781</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.000059127807617</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.449501752853394</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.882789731025696</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.351075291633606</v>
+      </c>
+      <c r="G47" t="n">
+        <v>101.0378112792969</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5.988927841186523</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.447228670120239</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.877987027168274</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.346805691719055</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100.8713684082031</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.062716960906982</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.462258577346802</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.890996694564819</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.361055016517639</v>
+      </c>
+      <c r="G49" t="n">
+        <v>100.1615600585938</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5.990333557128906</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.447515726089478</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.879659295082092</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.349448323249817</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100.2064208984375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5.975170135498047</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.444416046142578</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.874521851539612</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.343575716018677</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100.9904403686523</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +1735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,19 +1790,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.52859115600586</v>
+        <v>280.0605773925781</v>
       </c>
       <c r="D2" t="n">
-        <v>7.584760665893555</v>
+        <v>16.73501014709473</v>
       </c>
       <c r="E2" t="n">
-        <v>5.964481353759766</v>
+        <v>3.49083399772644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329714298248291</v>
+        <v>2.933542966842651</v>
       </c>
       <c r="G2" t="n">
-        <v>786.5835571289062</v>
+        <v>544.7871704101562</v>
       </c>
     </row>
     <row r="3">
@@ -1065,19 +1815,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56.87005233764648</v>
+        <v>7.290289402008057</v>
       </c>
       <c r="D3" t="n">
-        <v>7.541223526000977</v>
+        <v>2.700053691864014</v>
       </c>
       <c r="E3" t="n">
-        <v>5.928387641906738</v>
+        <v>2.002752065658569</v>
       </c>
       <c r="F3" t="n">
-        <v>5.294435501098633</v>
+        <v>1.452024340629578</v>
       </c>
       <c r="G3" t="n">
-        <v>786.8615112304688</v>
+        <v>106.724365234375</v>
       </c>
     </row>
     <row r="4">
@@ -1090,19 +1840,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.31175231933594</v>
+        <v>7.202414035797119</v>
       </c>
       <c r="D4" t="n">
-        <v>7.504115581512451</v>
+        <v>2.683731317520142</v>
       </c>
       <c r="E4" t="n">
-        <v>5.896419525146484</v>
+        <v>1.991939663887024</v>
       </c>
       <c r="F4" t="n">
-        <v>5.262879371643066</v>
+        <v>1.442017316818237</v>
       </c>
       <c r="G4" t="n">
-        <v>787.0845336914062</v>
+        <v>107.0939636230469</v>
       </c>
     </row>
     <row r="5">
@@ -1115,19 +1865,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.76105499267578</v>
+        <v>7.11801815032959</v>
       </c>
       <c r="D5" t="n">
-        <v>7.467332363128662</v>
+        <v>2.667961359024048</v>
       </c>
       <c r="E5" t="n">
-        <v>5.865841865539551</v>
+        <v>1.981698513031006</v>
       </c>
       <c r="F5" t="n">
-        <v>5.231918334960938</v>
+        <v>1.432508111000061</v>
       </c>
       <c r="G5" t="n">
-        <v>787.130615234375</v>
+        <v>107.4869537353516</v>
       </c>
     </row>
     <row r="6">
@@ -1140,19 +1890,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55.34261703491211</v>
+        <v>7.037256240844727</v>
       </c>
       <c r="D6" t="n">
-        <v>7.439261913299561</v>
+        <v>2.652782678604126</v>
       </c>
       <c r="E6" t="n">
-        <v>5.843057155609131</v>
+        <v>1.972154259681702</v>
       </c>
       <c r="F6" t="n">
-        <v>5.208693981170654</v>
+        <v>1.423477530479431</v>
       </c>
       <c r="G6" t="n">
-        <v>787.2377319335938</v>
+        <v>107.8886337280273</v>
       </c>
     </row>
     <row r="7">
@@ -1165,19 +1915,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.02238082885742</v>
+        <v>6.959939002990723</v>
       </c>
       <c r="D7" t="n">
-        <v>7.417707443237305</v>
+        <v>2.638169527053833</v>
       </c>
       <c r="E7" t="n">
-        <v>5.82441234588623</v>
+        <v>1.962762951850891</v>
       </c>
       <c r="F7" t="n">
-        <v>5.19008207321167</v>
+        <v>1.414905190467834</v>
       </c>
       <c r="G7" t="n">
-        <v>787.75439453125</v>
+        <v>108.3021850585938</v>
       </c>
     </row>
     <row r="8">
@@ -1190,19 +1940,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54.6087646484375</v>
+        <v>6.885870933532715</v>
       </c>
       <c r="D8" t="n">
-        <v>7.389774322509766</v>
+        <v>2.624094247817993</v>
       </c>
       <c r="E8" t="n">
-        <v>5.801468372344971</v>
+        <v>1.953522562980652</v>
       </c>
       <c r="F8" t="n">
-        <v>5.167300224304199</v>
+        <v>1.406762957572937</v>
       </c>
       <c r="G8" t="n">
-        <v>786.7337646484375</v>
+        <v>108.7314300537109</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1965,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54.40884017944336</v>
+        <v>6.806771755218506</v>
       </c>
       <c r="D9" t="n">
-        <v>7.376235008239746</v>
+        <v>2.608978986740112</v>
       </c>
       <c r="E9" t="n">
-        <v>5.787572383880615</v>
+        <v>1.944440126419067</v>
       </c>
       <c r="F9" t="n">
-        <v>5.153707027435303</v>
+        <v>1.398561120033264</v>
       </c>
       <c r="G9" t="n">
-        <v>786.3309326171875</v>
+        <v>109.1726226806641</v>
       </c>
     </row>
     <row r="10">
@@ -1240,19 +1990,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53.97024154663086</v>
+        <v>6.705944538116455</v>
       </c>
       <c r="D10" t="n">
-        <v>7.346444129943848</v>
+        <v>2.589583873748779</v>
       </c>
       <c r="E10" t="n">
-        <v>5.763493061065674</v>
+        <v>1.934463620185852</v>
       </c>
       <c r="F10" t="n">
-        <v>5.129879474639893</v>
+        <v>1.389241218566895</v>
       </c>
       <c r="G10" t="n">
-        <v>785.1607666015625</v>
+        <v>109.5798950195312</v>
       </c>
     </row>
     <row r="11">
@@ -1265,19 +2015,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53.32179641723633</v>
+        <v>6.611431121826172</v>
       </c>
       <c r="D11" t="n">
-        <v>7.302177429199219</v>
+        <v>2.571270227432251</v>
       </c>
       <c r="E11" t="n">
-        <v>5.730246543884277</v>
+        <v>1.924906730651855</v>
       </c>
       <c r="F11" t="n">
-        <v>5.097503185272217</v>
+        <v>1.380492687225342</v>
       </c>
       <c r="G11" t="n">
-        <v>787.739501953125</v>
+        <v>110.0602645874023</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +2040,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.78990173339844</v>
+        <v>6.521503925323486</v>
       </c>
       <c r="D12" t="n">
-        <v>7.265666007995605</v>
+        <v>2.553723573684692</v>
       </c>
       <c r="E12" t="n">
-        <v>5.702595710754395</v>
+        <v>1.916763782501221</v>
       </c>
       <c r="F12" t="n">
-        <v>5.070200443267822</v>
+        <v>1.372324228286743</v>
       </c>
       <c r="G12" t="n">
-        <v>789.389404296875</v>
+        <v>110.3991928100586</v>
       </c>
     </row>
     <row r="13">
@@ -1315,19 +2065,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.35575866699219</v>
+        <v>6.437534332275391</v>
       </c>
       <c r="D13" t="n">
-        <v>7.235727787017822</v>
+        <v>2.537229537963867</v>
       </c>
       <c r="E13" t="n">
-        <v>5.679534435272217</v>
+        <v>1.908730268478394</v>
       </c>
       <c r="F13" t="n">
-        <v>5.046913623809814</v>
+        <v>1.364619851112366</v>
       </c>
       <c r="G13" t="n">
-        <v>790.371337890625</v>
+        <v>110.1677551269531</v>
       </c>
     </row>
     <row r="14">
@@ -1340,19 +2090,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.10268020629883</v>
+        <v>6.359065532684326</v>
       </c>
       <c r="D14" t="n">
-        <v>7.218218803405762</v>
+        <v>2.521718740463257</v>
       </c>
       <c r="E14" t="n">
-        <v>5.66554594039917</v>
+        <v>1.900812745094299</v>
       </c>
       <c r="F14" t="n">
-        <v>5.033237934112549</v>
+        <v>1.357341527938843</v>
       </c>
       <c r="G14" t="n">
-        <v>791.198974609375</v>
+        <v>109.9375762939453</v>
       </c>
     </row>
     <row r="15">
@@ -1365,19 +2115,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51.25078964233398</v>
+        <v>6.285655975341797</v>
       </c>
       <c r="D15" t="n">
-        <v>7.158965587615967</v>
+        <v>2.507121086120605</v>
       </c>
       <c r="E15" t="n">
-        <v>5.630041599273682</v>
+        <v>1.893335461616516</v>
       </c>
       <c r="F15" t="n">
-        <v>4.996624946594238</v>
+        <v>1.350453495979309</v>
       </c>
       <c r="G15" t="n">
-        <v>791.0074462890625</v>
+        <v>109.7153167724609</v>
       </c>
     </row>
     <row r="16">
@@ -1390,19 +2140,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50.62790298461914</v>
+        <v>6.216927051544189</v>
       </c>
       <c r="D16" t="n">
-        <v>7.115328788757324</v>
+        <v>2.493376731872559</v>
       </c>
       <c r="E16" t="n">
-        <v>5.594187259674072</v>
+        <v>1.886577129364014</v>
       </c>
       <c r="F16" t="n">
-        <v>4.962141513824463</v>
+        <v>1.343930244445801</v>
       </c>
       <c r="G16" t="n">
-        <v>792.082763671875</v>
+        <v>109.5000991821289</v>
       </c>
     </row>
     <row r="17">
@@ -1415,19 +2165,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.0789909362793</v>
+        <v>6.152508735656738</v>
       </c>
       <c r="D17" t="n">
-        <v>7.076651096343994</v>
+        <v>2.480425119400024</v>
       </c>
       <c r="E17" t="n">
-        <v>5.561214447021484</v>
+        <v>1.879904627799988</v>
       </c>
       <c r="F17" t="n">
-        <v>4.930476665496826</v>
+        <v>1.33774733543396</v>
       </c>
       <c r="G17" t="n">
-        <v>791.7593994140625</v>
+        <v>109.2503128051758</v>
       </c>
     </row>
     <row r="18">
@@ -1440,19 +2190,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49.70867919921875</v>
+        <v>6.09208345413208</v>
       </c>
       <c r="D18" t="n">
-        <v>7.050438404083252</v>
+        <v>2.468214511871338</v>
       </c>
       <c r="E18" t="n">
-        <v>5.535509586334229</v>
+        <v>1.873319864273071</v>
       </c>
       <c r="F18" t="n">
-        <v>4.907000541687012</v>
+        <v>1.331887245178223</v>
       </c>
       <c r="G18" t="n">
-        <v>792.20556640625</v>
+        <v>108.9971313476562</v>
       </c>
     </row>
     <row r="19">
@@ -1465,19 +2215,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49.44674682617188</v>
+        <v>6.035351276397705</v>
       </c>
       <c r="D19" t="n">
-        <v>7.031837940216064</v>
+        <v>2.456695079803467</v>
       </c>
       <c r="E19" t="n">
-        <v>5.516670703887939</v>
+        <v>1.866823434829712</v>
       </c>
       <c r="F19" t="n">
-        <v>4.889701843261719</v>
+        <v>1.326333165168762</v>
       </c>
       <c r="G19" t="n">
-        <v>791.9061889648438</v>
+        <v>108.7502975463867</v>
       </c>
     </row>
     <row r="20">
@@ -1490,19 +2240,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.21416473388672</v>
+        <v>5.982059955596924</v>
       </c>
       <c r="D20" t="n">
-        <v>7.015280723571777</v>
+        <v>2.445825099945068</v>
       </c>
       <c r="E20" t="n">
-        <v>5.501612186431885</v>
+        <v>1.860421180725098</v>
       </c>
       <c r="F20" t="n">
-        <v>4.875128746032715</v>
+        <v>1.321075439453125</v>
       </c>
       <c r="G20" t="n">
-        <v>791.3197021484375</v>
+        <v>108.5093536376953</v>
       </c>
     </row>
     <row r="21">
@@ -1515,19 +2265,769 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49.08599472045898</v>
+        <v>5.932447910308838</v>
       </c>
       <c r="D21" t="n">
-        <v>7.006139755249023</v>
+        <v>2.435661792755127</v>
       </c>
       <c r="E21" t="n">
-        <v>5.491648197174072</v>
+        <v>1.854201316833496</v>
       </c>
       <c r="F21" t="n">
-        <v>4.866293907165527</v>
+        <v>1.316170692443848</v>
       </c>
       <c r="G21" t="n">
-        <v>791.8326416015625</v>
+        <v>108.2740173339844</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.896350383758545</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.428240299224854</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.850208282470703</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.313026666641235</v>
+      </c>
+      <c r="G22" t="n">
+        <v>108.0443801879883</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5.859749317169189</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.420691967010498</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.845972180366516</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.309654355049133</v>
+      </c>
+      <c r="G23" t="n">
+        <v>107.8199996948242</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5.824650764465332</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.413431406021118</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.841697454452515</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.306316733360291</v>
+      </c>
+      <c r="G24" t="n">
+        <v>107.6012115478516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5.805678844451904</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.409497737884521</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.838900089263916</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.303810715675354</v>
+      </c>
+      <c r="G25" t="n">
+        <v>107.5173034667969</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5.789749145507812</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.406189680099487</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.83660888671875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.301724433898926</v>
+      </c>
+      <c r="G26" t="n">
+        <v>107.4336547851562</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5.772293090820312</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.402559757232666</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.833953619003296</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.299423217773438</v>
+      </c>
+      <c r="G27" t="n">
+        <v>107.3504104614258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5.753965854644775</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.39874267578125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.831137418746948</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.296956062316895</v>
+      </c>
+      <c r="G28" t="n">
+        <v>107.267448425293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5.735847473144531</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.394963026046753</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.828317046165466</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.294503211975098</v>
+      </c>
+      <c r="G29" t="n">
+        <v>107.1848831176758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5.720190048217773</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.391691923141479</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.825904488563538</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.292391657829285</v>
+      </c>
+      <c r="G30" t="n">
+        <v>107.1023864746094</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5.704098701477051</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.388325452804565</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.823335409164429</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.290228962898254</v>
+      </c>
+      <c r="G31" t="n">
+        <v>107.0204010009766</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5.686527729034424</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.384644269943237</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.820502161979675</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.287816882133484</v>
+      </c>
+      <c r="G32" t="n">
+        <v>106.9386825561523</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5.669137954711914</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.380995273590088</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.817665576934814</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.285419940948486</v>
+      </c>
+      <c r="G33" t="n">
+        <v>106.8573150634766</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5.655911922454834</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.378216028213501</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.815794706344604</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.283719658851624</v>
+      </c>
+      <c r="G34" t="n">
+        <v>106.8067245483398</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5.643859386444092</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.375680923461914</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.813920140266418</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.282105684280396</v>
+      </c>
+      <c r="G35" t="n">
+        <v>106.7575378417969</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5.629642963409424</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.372686862945557</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.811673283576965</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.280151963233948</v>
+      </c>
+      <c r="G36" t="n">
+        <v>106.708366394043</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5.615549087524414</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.369714975357056</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.80942714214325</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.278212070465088</v>
+      </c>
+      <c r="G37" t="n">
+        <v>106.6591949462891</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5.602609157562256</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.36698317527771</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.807369709014893</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.276435017585754</v>
+      </c>
+      <c r="G38" t="n">
+        <v>106.6100387573242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5.591599464416504</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.364656209945679</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.80560302734375</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.274956703186035</v>
+      </c>
+      <c r="G39" t="n">
+        <v>106.5609970092773</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5.577798843383789</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.361736297607422</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.803465127944946</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.273049831390381</v>
+      </c>
+      <c r="G40" t="n">
+        <v>106.511962890625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5.56410026550293</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.358834505081177</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.801377177238464</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.271155714988708</v>
+      </c>
+      <c r="G41" t="n">
+        <v>106.4630432128906</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5.55095911026001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.356047391891479</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.799370288848877</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.269339442253113</v>
+      </c>
+      <c r="G42" t="n">
+        <v>106.4140396118164</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5.540875911712646</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.353906631469727</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.79785943031311</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.267986655235291</v>
+      </c>
+      <c r="G43" t="n">
+        <v>106.3652038574219</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5.527424812316895</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.351047515869141</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.795758485794067</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.266121864318848</v>
+      </c>
+      <c r="G44" t="n">
+        <v>106.3163299560547</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5.514058113098145</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.348203182220459</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.793709516525269</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.264267444610596</v>
+      </c>
+      <c r="G45" t="n">
+        <v>106.2595062255859</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5.500778198242188</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.345373868942261</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.791669368743896</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.262425065040588</v>
+      </c>
+      <c r="G46" t="n">
+        <v>106.1802673339844</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5.491359710693359</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.343364953994751</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.790320038795471</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.261138319969177</v>
+      </c>
+      <c r="G47" t="n">
+        <v>106.1009292602539</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5.478314876556396</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.340579986572266</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.788313508033752</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.259351372718811</v>
+      </c>
+      <c r="G48" t="n">
+        <v>106.0216064453125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5.465229511260986</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.337783098220825</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.786319255828857</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.25753390789032</v>
+      </c>
+      <c r="G49" t="n">
+        <v>105.9421997070312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5.452219009399414</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.334998607635498</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.784319996833801</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.255726933479309</v>
+      </c>
+      <c r="G50" t="n">
+        <v>105.8627777099609</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5.442385196685791</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.332891941070557</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.782881140708923</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.254379272460938</v>
+      </c>
+      <c r="G51" t="n">
+        <v>105.7832107543945</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +3041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,19 +3096,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.52859115600586</v>
+        <v>280.0605773925781</v>
       </c>
       <c r="D2" t="n">
-        <v>7.584760665893555</v>
+        <v>16.73501014709473</v>
       </c>
       <c r="E2" t="n">
-        <v>5.964481353759766</v>
+        <v>3.49083399772644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329714298248291</v>
+        <v>2.933542966842651</v>
       </c>
       <c r="G2" t="n">
-        <v>786.5835571289062</v>
+        <v>544.7871704101562</v>
       </c>
     </row>
     <row r="3">
@@ -1621,19 +3121,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.48403167724609</v>
+        <v>7.378682136535645</v>
       </c>
       <c r="D3" t="n">
-        <v>7.581822395324707</v>
+        <v>2.716372966766357</v>
       </c>
       <c r="E3" t="n">
-        <v>5.962041854858398</v>
+        <v>2.013954162597656</v>
       </c>
       <c r="F3" t="n">
-        <v>5.327338695526123</v>
+        <v>1.462249040603638</v>
       </c>
       <c r="G3" t="n">
-        <v>786.6014404296875</v>
+        <v>106.3908843994141</v>
       </c>
     </row>
     <row r="4">
@@ -1646,19 +3146,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.43972396850586</v>
+        <v>7.361601829528809</v>
       </c>
       <c r="D4" t="n">
-        <v>7.57889986038208</v>
+        <v>2.713227272033691</v>
       </c>
       <c r="E4" t="n">
-        <v>5.959621429443359</v>
+        <v>2.011755466461182</v>
       </c>
       <c r="F4" t="n">
-        <v>5.324975490570068</v>
+        <v>1.460282444953918</v>
       </c>
       <c r="G4" t="n">
-        <v>786.6190185546875</v>
+        <v>106.4570465087891</v>
       </c>
     </row>
     <row r="5">
@@ -1671,19 +3171,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.39563369750977</v>
+        <v>7.34459114074707</v>
       </c>
       <c r="D5" t="n">
-        <v>7.575990676879883</v>
+        <v>2.710090637207031</v>
       </c>
       <c r="E5" t="n">
-        <v>5.957216739654541</v>
+        <v>2.009571313858032</v>
       </c>
       <c r="F5" t="n">
-        <v>5.322623729705811</v>
+        <v>1.458329677581787</v>
       </c>
       <c r="G5" t="n">
-        <v>786.63623046875</v>
+        <v>106.5252380371094</v>
       </c>
     </row>
     <row r="6">
@@ -1696,19 +3196,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.35171890258789</v>
+        <v>7.327716827392578</v>
       </c>
       <c r="D6" t="n">
-        <v>7.573091983795166</v>
+        <v>2.706975698471069</v>
       </c>
       <c r="E6" t="n">
-        <v>5.954832077026367</v>
+        <v>2.00749683380127</v>
       </c>
       <c r="F6" t="n">
-        <v>5.3202805519104</v>
+        <v>1.456395149230957</v>
       </c>
       <c r="G6" t="n">
-        <v>786.653076171875</v>
+        <v>106.5935211181641</v>
       </c>
     </row>
     <row r="7">
@@ -1721,19 +3221,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.30803680419922</v>
+        <v>7.310948848724365</v>
       </c>
       <c r="D7" t="n">
-        <v>7.570207118988037</v>
+        <v>2.703876733779907</v>
       </c>
       <c r="E7" t="n">
-        <v>5.95247220993042</v>
+        <v>2.005505323410034</v>
       </c>
       <c r="F7" t="n">
-        <v>5.317949771881104</v>
+        <v>1.454475045204163</v>
       </c>
       <c r="G7" t="n">
-        <v>786.669921875</v>
+        <v>106.6621856689453</v>
       </c>
     </row>
     <row r="8">
@@ -1746,19 +3246,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.26454925537109</v>
+        <v>7.294312000274658</v>
       </c>
       <c r="D8" t="n">
-        <v>7.567334175109863</v>
+        <v>2.700798511505127</v>
       </c>
       <c r="E8" t="n">
-        <v>5.950116634368896</v>
+        <v>2.003519058227539</v>
       </c>
       <c r="F8" t="n">
-        <v>5.315627574920654</v>
+        <v>1.452571868896484</v>
       </c>
       <c r="G8" t="n">
-        <v>786.686767578125</v>
+        <v>106.7309494018555</v>
       </c>
     </row>
     <row r="9">
@@ -1771,19 +3271,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.22127151489258</v>
+        <v>7.277769565582275</v>
       </c>
       <c r="D9" t="n">
-        <v>7.564474105834961</v>
+        <v>2.697734117507935</v>
       </c>
       <c r="E9" t="n">
-        <v>5.94776725769043</v>
+        <v>2.001535177230835</v>
       </c>
       <c r="F9" t="n">
-        <v>5.313318729400635</v>
+        <v>1.450683355331421</v>
       </c>
       <c r="G9" t="n">
-        <v>786.7032470703125</v>
+        <v>106.8003311157227</v>
       </c>
     </row>
     <row r="10">
@@ -1796,19 +3296,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57.17821884155273</v>
+        <v>7.261369705200195</v>
       </c>
       <c r="D10" t="n">
-        <v>7.561627864837646</v>
+        <v>2.694692850112915</v>
       </c>
       <c r="E10" t="n">
-        <v>5.945428371429443</v>
+        <v>1.999557852745056</v>
       </c>
       <c r="F10" t="n">
-        <v>5.311023235321045</v>
+        <v>1.448813319206238</v>
       </c>
       <c r="G10" t="n">
-        <v>786.7192993164062</v>
+        <v>106.8698196411133</v>
       </c>
     </row>
     <row r="11">
@@ -1821,19 +3321,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57.13527297973633</v>
+        <v>7.245070934295654</v>
       </c>
       <c r="D11" t="n">
-        <v>7.558787822723389</v>
+        <v>2.691666841506958</v>
       </c>
       <c r="E11" t="n">
-        <v>5.943091869354248</v>
+        <v>1.997584700584412</v>
       </c>
       <c r="F11" t="n">
-        <v>5.308732032775879</v>
+        <v>1.446958780288696</v>
       </c>
       <c r="G11" t="n">
-        <v>786.7354125976562</v>
+        <v>106.9394989013672</v>
       </c>
     </row>
     <row r="12">
@@ -1846,19 +3346,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.09258651733398</v>
+        <v>7.22890043258667</v>
       </c>
       <c r="D12" t="n">
-        <v>7.555963516235352</v>
+        <v>2.688661575317383</v>
       </c>
       <c r="E12" t="n">
-        <v>5.940764427185059</v>
+        <v>1.995618462562561</v>
       </c>
       <c r="F12" t="n">
-        <v>5.306455612182617</v>
+        <v>1.445122838020325</v>
       </c>
       <c r="G12" t="n">
-        <v>786.75146484375</v>
+        <v>107.0096130371094</v>
       </c>
     </row>
     <row r="13">
@@ -1871,19 +3371,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.05012512207031</v>
+        <v>7.212839126586914</v>
       </c>
       <c r="D13" t="n">
-        <v>7.553153514862061</v>
+        <v>2.685672998428345</v>
       </c>
       <c r="E13" t="n">
-        <v>5.938444137573242</v>
+        <v>1.993653535842896</v>
       </c>
       <c r="F13" t="n">
-        <v>5.304192543029785</v>
+        <v>1.443299651145935</v>
       </c>
       <c r="G13" t="n">
-        <v>786.7669677734375</v>
+        <v>107.079963684082</v>
       </c>
     </row>
     <row r="14">
@@ -1896,19 +3396,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57.00790405273438</v>
+        <v>7.196885108947754</v>
       </c>
       <c r="D14" t="n">
-        <v>7.550357818603516</v>
+        <v>2.682701110839844</v>
       </c>
       <c r="E14" t="n">
-        <v>5.936131954193115</v>
+        <v>1.991692423820496</v>
       </c>
       <c r="F14" t="n">
-        <v>5.301943302154541</v>
+        <v>1.441491842269897</v>
       </c>
       <c r="G14" t="n">
-        <v>786.7823486328125</v>
+        <v>107.1506423950195</v>
       </c>
     </row>
     <row r="15">
@@ -1921,19 +3421,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56.96587371826172</v>
+        <v>7.181048393249512</v>
       </c>
       <c r="D15" t="n">
-        <v>7.547574043273926</v>
+        <v>2.679747819900513</v>
       </c>
       <c r="E15" t="n">
-        <v>5.93382453918457</v>
+        <v>1.989736795425415</v>
       </c>
       <c r="F15" t="n">
-        <v>5.299703598022461</v>
+        <v>1.439700245857239</v>
       </c>
       <c r="G15" t="n">
-        <v>786.7978515625</v>
+        <v>107.2216262817383</v>
       </c>
     </row>
     <row r="16">
@@ -1946,19 +3446,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56.92402648925781</v>
+        <v>7.165326595306396</v>
       </c>
       <c r="D16" t="n">
-        <v>7.544801235198975</v>
+        <v>2.676812887191772</v>
       </c>
       <c r="E16" t="n">
-        <v>5.931519985198975</v>
+        <v>1.987784385681152</v>
       </c>
       <c r="F16" t="n">
-        <v>5.297472476959229</v>
+        <v>1.437923312187195</v>
       </c>
       <c r="G16" t="n">
-        <v>786.8128662109375</v>
+        <v>107.2928009033203</v>
       </c>
     </row>
     <row r="17">
@@ -1971,19 +3471,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56.88475036621094</v>
+        <v>7.149710655212402</v>
       </c>
       <c r="D17" t="n">
-        <v>7.542198181152344</v>
+        <v>2.67389440536499</v>
       </c>
       <c r="E17" t="n">
-        <v>5.929306030273438</v>
+        <v>1.985836386680603</v>
       </c>
       <c r="F17" t="n">
-        <v>5.295319557189941</v>
+        <v>1.436161518096924</v>
       </c>
       <c r="G17" t="n">
-        <v>786.827880859375</v>
+        <v>107.364631652832</v>
       </c>
     </row>
     <row r="18">
@@ -1996,19 +3496,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56.8484001159668</v>
+        <v>7.134212970733643</v>
       </c>
       <c r="D18" t="n">
-        <v>7.539787769317627</v>
+        <v>2.670994758605957</v>
       </c>
       <c r="E18" t="n">
-        <v>5.927190780639648</v>
+        <v>1.983971357345581</v>
       </c>
       <c r="F18" t="n">
-        <v>5.293256759643555</v>
+        <v>1.434416532516479</v>
       </c>
       <c r="G18" t="n">
-        <v>786.8428955078125</v>
+        <v>107.4365921020508</v>
       </c>
     </row>
     <row r="19">
@@ -2021,19 +3521,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.81215286254883</v>
+        <v>7.118829727172852</v>
       </c>
       <c r="D19" t="n">
-        <v>7.537383556365967</v>
+        <v>2.668113470077515</v>
       </c>
       <c r="E19" t="n">
-        <v>5.925076007843018</v>
+        <v>1.982181429862976</v>
       </c>
       <c r="F19" t="n">
-        <v>5.291200160980225</v>
+        <v>1.432687520980835</v>
       </c>
       <c r="G19" t="n">
-        <v>786.8575439453125</v>
+        <v>107.5090713500977</v>
       </c>
     </row>
     <row r="20">
@@ -2046,19 +3546,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.77584457397461</v>
+        <v>7.103542804718018</v>
       </c>
       <c r="D20" t="n">
-        <v>7.534974575042725</v>
+        <v>2.665247201919556</v>
       </c>
       <c r="E20" t="n">
-        <v>5.922961711883545</v>
+        <v>1.980395793914795</v>
       </c>
       <c r="F20" t="n">
-        <v>5.289142608642578</v>
+        <v>1.430973052978516</v>
       </c>
       <c r="G20" t="n">
-        <v>786.8728637695312</v>
+        <v>107.5820999145508</v>
       </c>
     </row>
     <row r="21">
@@ -2071,19 +3571,769 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56.73517608642578</v>
+        <v>7.088360786437988</v>
       </c>
       <c r="D21" t="n">
-        <v>7.532275676727295</v>
+        <v>2.662397623062134</v>
       </c>
       <c r="E21" t="n">
-        <v>5.920666694641113</v>
+        <v>1.978610634803772</v>
       </c>
       <c r="F21" t="n">
-        <v>5.286884307861328</v>
+        <v>1.42927098274231</v>
       </c>
       <c r="G21" t="n">
-        <v>786.8873291015625</v>
+        <v>107.6553802490234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.073302268981934</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.659568071365356</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.976830363273621</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.427585244178772</v>
+      </c>
+      <c r="G22" t="n">
+        <v>107.7289581298828</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7.05833911895752</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.656753540039062</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.975052714347839</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.425912737846375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>107.8031616210938</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7.043479919433594</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.653955459594727</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.973278760910034</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.42425537109375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>107.8778381347656</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7.028723239898682</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.651173830032349</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.971507906913757</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.422611355781555</v>
+      </c>
+      <c r="G25" t="n">
+        <v>107.9529190063477</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7.014076709747314</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.648410320281982</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.969740986824036</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.420982480049133</v>
+      </c>
+      <c r="G26" t="n">
+        <v>108.028434753418</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.999526500701904</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.6456618309021</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.967977523803711</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.41936731338501</v>
+      </c>
+      <c r="G27" t="n">
+        <v>108.1044311523438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6.985085964202881</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.642931222915649</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.966219782829285</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.417767405509949</v>
+      </c>
+      <c r="G28" t="n">
+        <v>108.180908203125</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6.970733165740967</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.640214681625366</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.964463114738464</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.416179537773132</v>
+      </c>
+      <c r="G29" t="n">
+        <v>108.2581176757812</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.95649242401123</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.637516260147095</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.96271026134491</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.414605617523193</v>
+      </c>
+      <c r="G30" t="n">
+        <v>108.3359298706055</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>6.942352771759033</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.63483452796936</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.960959911346436</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.413044571876526</v>
+      </c>
+      <c r="G31" t="n">
+        <v>108.414436340332</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.928298950195312</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.632166147232056</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.959212183952332</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.411495566368103</v>
+      </c>
+      <c r="G32" t="n">
+        <v>108.49365234375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6.914355278015137</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.629516124725342</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.957470655441284</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.409962773323059</v>
+      </c>
+      <c r="G33" t="n">
+        <v>108.5732269287109</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6.90049934387207</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.626880168914795</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.955730557441711</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.408440828323364</v>
+      </c>
+      <c r="G34" t="n">
+        <v>108.6537246704102</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6.886748313903809</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.624261379241943</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.953994870185852</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.406932473182678</v>
+      </c>
+      <c r="G35" t="n">
+        <v>108.7347869873047</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>136.5019073486328</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.68340301513672</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.672343254089355</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.122744798660278</v>
+      </c>
+      <c r="G36" t="n">
+        <v>194.2907867431641</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6.870054721832275</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.621078968048096</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.951876401901245</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.405104756355286</v>
+      </c>
+      <c r="G37" t="n">
+        <v>108.835578918457</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.856510162353516</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.618493795394897</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.950147986412048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.403624653816223</v>
+      </c>
+      <c r="G38" t="n">
+        <v>108.9185256958008</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>6.840780258178711</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.615488529205322</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.948431611061096</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.402029633522034</v>
+      </c>
+      <c r="G39" t="n">
+        <v>108.9997711181641</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6.820803642272949</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.611666917800903</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.946503162384033</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.400176405906677</v>
+      </c>
+      <c r="G40" t="n">
+        <v>109.0697250366211</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6.801047801971436</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.607881784439087</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.944576382637024</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.39834201335907</v>
+      </c>
+      <c r="G41" t="n">
+        <v>109.1408309936523</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6.781510353088379</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.604133367538452</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.942657709121704</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.396528720855713</v>
+      </c>
+      <c r="G42" t="n">
+        <v>109.2132110595703</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6.762204170227051</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.600423812866211</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.940755605697632</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.394736409187317</v>
+      </c>
+      <c r="G43" t="n">
+        <v>109.2868804931641</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6.743095397949219</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.596747159957886</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.938854217529297</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.392960548400879</v>
+      </c>
+      <c r="G44" t="n">
+        <v>109.3621139526367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6.724216938018799</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.593109607696533</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.936960816383362</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.391206622123718</v>
+      </c>
+      <c r="G45" t="n">
+        <v>109.4390563964844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6.705548286437988</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.589507341384888</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.935070037841797</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.38947057723999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>109.5173034667969</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.687077522277832</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.585938453674316</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.933182597160339</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.387751698493958</v>
+      </c>
+      <c r="G47" t="n">
+        <v>109.5975341796875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6.668816566467285</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.582405090332031</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.931299567222595</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.386051416397095</v>
+      </c>
+      <c r="G48" t="n">
+        <v>109.6798706054688</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.650755405426025</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.578905820846558</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.92941951751709</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.384367108345032</v>
+      </c>
+      <c r="G49" t="n">
+        <v>109.7647094726562</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6.632895946502686</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.575440883636475</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.927544236183167</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.382701635360718</v>
+      </c>
+      <c r="G50" t="n">
+        <v>109.8526153564453</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6.615243911743164</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.572011709213257</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.925722360610962</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.38105309009552</v>
+      </c>
+      <c r="G51" t="n">
+        <v>109.9415893554688</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +4347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,19 +4402,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.52859115600586</v>
+        <v>280.0605773925781</v>
       </c>
       <c r="D2" t="n">
-        <v>7.584760665893555</v>
+        <v>16.73501014709473</v>
       </c>
       <c r="E2" t="n">
-        <v>5.964481353759766</v>
+        <v>3.49083399772644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329714298248291</v>
+        <v>2.933542966842651</v>
       </c>
       <c r="G2" t="n">
-        <v>786.5835571289062</v>
+        <v>544.7871704101562</v>
       </c>
     </row>
     <row r="3">
@@ -2177,19 +4427,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.49158477783203</v>
+        <v>7.369537830352783</v>
       </c>
       <c r="D3" t="n">
-        <v>7.582320690155029</v>
+        <v>2.714689254760742</v>
       </c>
       <c r="E3" t="n">
-        <v>5.962077140808105</v>
+        <v>2.011986017227173</v>
       </c>
       <c r="F3" t="n">
-        <v>5.32738208770752</v>
+        <v>1.460584402084351</v>
       </c>
       <c r="G3" t="n">
-        <v>786.583984375</v>
+        <v>106.4427642822266</v>
       </c>
     </row>
     <row r="4">
@@ -2202,19 +4452,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.45467758178711</v>
+        <v>7.357624530792236</v>
       </c>
       <c r="D4" t="n">
-        <v>7.579886436462402</v>
+        <v>2.712494134902954</v>
       </c>
       <c r="E4" t="n">
-        <v>5.959675312042236</v>
+        <v>2.009663820266724</v>
       </c>
       <c r="F4" t="n">
-        <v>5.325055599212646</v>
+        <v>1.458613634109497</v>
       </c>
       <c r="G4" t="n">
-        <v>786.5839233398438</v>
+        <v>106.5071563720703</v>
       </c>
     </row>
     <row r="5">
@@ -2227,19 +4477,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.41791534423828</v>
+        <v>7.345780849456787</v>
       </c>
       <c r="D5" t="n">
-        <v>7.577461242675781</v>
+        <v>2.710310220718384</v>
       </c>
       <c r="E5" t="n">
-        <v>5.957276821136475</v>
+        <v>2.007528781890869</v>
       </c>
       <c r="F5" t="n">
-        <v>5.322736263275146</v>
+        <v>1.456653356552124</v>
       </c>
       <c r="G5" t="n">
-        <v>786.583984375</v>
+        <v>106.5718841552734</v>
       </c>
     </row>
     <row r="6">
@@ -2252,19 +4502,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.38160705566406</v>
+        <v>7.334980487823486</v>
       </c>
       <c r="D6" t="n">
-        <v>7.575064659118652</v>
+        <v>2.708316802978516</v>
       </c>
       <c r="E6" t="n">
-        <v>5.95490550994873</v>
+        <v>2.005619049072266</v>
       </c>
       <c r="F6" t="n">
-        <v>5.320432186126709</v>
+        <v>1.454889297485352</v>
       </c>
       <c r="G6" t="n">
-        <v>786.584228515625</v>
+        <v>106.6252822875977</v>
       </c>
     </row>
     <row r="7">
@@ -2277,19 +4527,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.34592437744141</v>
+        <v>7.324227809906006</v>
       </c>
       <c r="D7" t="n">
-        <v>7.572709083557129</v>
+        <v>2.706331014633179</v>
       </c>
       <c r="E7" t="n">
-        <v>5.952591419219971</v>
+        <v>2.003709077835083</v>
       </c>
       <c r="F7" t="n">
-        <v>5.318164825439453</v>
+        <v>1.453135848045349</v>
       </c>
       <c r="G7" t="n">
-        <v>786.5805053710938</v>
+        <v>106.6790924072266</v>
       </c>
     </row>
     <row r="8">
@@ -2302,19 +4552,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.31032943725586</v>
+        <v>7.313522815704346</v>
       </c>
       <c r="D8" t="n">
-        <v>7.570358753204346</v>
+        <v>2.704352617263794</v>
       </c>
       <c r="E8" t="n">
-        <v>5.950277805328369</v>
+        <v>2.001799583435059</v>
       </c>
       <c r="F8" t="n">
-        <v>5.315900802612305</v>
+        <v>1.451393604278564</v>
       </c>
       <c r="G8" t="n">
-        <v>786.57666015625</v>
+        <v>106.7332534790039</v>
       </c>
     </row>
     <row r="9">
@@ -2327,19 +4577,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.27484893798828</v>
+        <v>7.302865982055664</v>
       </c>
       <c r="D9" t="n">
-        <v>7.568015098571777</v>
+        <v>2.702381610870361</v>
       </c>
       <c r="E9" t="n">
-        <v>5.947967529296875</v>
+        <v>1.999887585639954</v>
       </c>
       <c r="F9" t="n">
-        <v>5.313642978668213</v>
+        <v>1.449659705162048</v>
       </c>
       <c r="G9" t="n">
-        <v>786.5730590820312</v>
+        <v>106.7877807617188</v>
       </c>
     </row>
     <row r="10">
@@ -2352,19 +4602,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57.23957061767578</v>
+        <v>7.292252540588379</v>
       </c>
       <c r="D10" t="n">
-        <v>7.565683841705322</v>
+        <v>2.700417041778564</v>
       </c>
       <c r="E10" t="n">
-        <v>5.94566822052002</v>
+        <v>1.997974276542664</v>
       </c>
       <c r="F10" t="n">
-        <v>5.311398029327393</v>
+        <v>1.447935700416565</v>
       </c>
       <c r="G10" t="n">
-        <v>786.5694580078125</v>
+        <v>106.8425445556641</v>
       </c>
     </row>
     <row r="11">
@@ -2377,19 +4627,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57.20434951782227</v>
+        <v>7.281694889068604</v>
       </c>
       <c r="D11" t="n">
-        <v>7.563355922698975</v>
+        <v>2.698461532592773</v>
       </c>
       <c r="E11" t="n">
-        <v>5.943367004394531</v>
+        <v>1.996060848236084</v>
       </c>
       <c r="F11" t="n">
-        <v>5.309156894683838</v>
+        <v>1.446222901344299</v>
       </c>
       <c r="G11" t="n">
-        <v>786.5660400390625</v>
+        <v>106.8978881835938</v>
       </c>
     </row>
     <row r="12">
@@ -2402,19 +4652,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.16925048828125</v>
+        <v>7.271175861358643</v>
       </c>
       <c r="D12" t="n">
-        <v>7.56103515625</v>
+        <v>2.696511745452881</v>
       </c>
       <c r="E12" t="n">
-        <v>5.941066741943359</v>
+        <v>1.994145631790161</v>
       </c>
       <c r="F12" t="n">
-        <v>5.306921005249023</v>
+        <v>1.444518446922302</v>
       </c>
       <c r="G12" t="n">
-        <v>786.5625</v>
+        <v>106.9537200927734</v>
       </c>
     </row>
     <row r="13">
@@ -2427,19 +4677,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.13422393798828</v>
+        <v>7.260710716247559</v>
       </c>
       <c r="D13" t="n">
-        <v>7.558718204498291</v>
+        <v>2.694570541381836</v>
       </c>
       <c r="E13" t="n">
-        <v>5.938764572143555</v>
+        <v>1.992229580879211</v>
       </c>
       <c r="F13" t="n">
-        <v>5.304689884185791</v>
+        <v>1.442824840545654</v>
       </c>
       <c r="G13" t="n">
-        <v>786.5591430664062</v>
+        <v>107.0099334716797</v>
       </c>
     </row>
     <row r="14">
@@ -2452,19 +4702,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57.09930801391602</v>
+        <v>7.250280380249023</v>
       </c>
       <c r="D14" t="n">
-        <v>7.556408405303955</v>
+        <v>2.692634582519531</v>
       </c>
       <c r="E14" t="n">
-        <v>5.936463832855225</v>
+        <v>1.990310430526733</v>
       </c>
       <c r="F14" t="n">
-        <v>5.302464962005615</v>
+        <v>1.441139101982117</v>
       </c>
       <c r="G14" t="n">
-        <v>786.555908203125</v>
+        <v>107.0619812011719</v>
       </c>
     </row>
     <row r="15">
@@ -2477,19 +4727,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.06448745727539</v>
+        <v>7.239923477172852</v>
       </c>
       <c r="D15" t="n">
-        <v>7.554103851318359</v>
+        <v>2.690710544586182</v>
       </c>
       <c r="E15" t="n">
-        <v>5.93416166305542</v>
+        <v>1.988395094871521</v>
       </c>
       <c r="F15" t="n">
-        <v>5.300244331359863</v>
+        <v>1.439468622207642</v>
       </c>
       <c r="G15" t="n">
-        <v>786.552978515625</v>
+        <v>107.1141357421875</v>
       </c>
     </row>
     <row r="16">
@@ -2502,19 +4752,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.02975845336914</v>
+        <v>7.229598999023438</v>
       </c>
       <c r="D16" t="n">
-        <v>7.551805019378662</v>
+        <v>2.688791275024414</v>
       </c>
       <c r="E16" t="n">
-        <v>5.931859493255615</v>
+        <v>1.986611843109131</v>
       </c>
       <c r="F16" t="n">
-        <v>5.298028469085693</v>
+        <v>1.43780517578125</v>
       </c>
       <c r="G16" t="n">
-        <v>786.5499267578125</v>
+        <v>107.1669998168945</v>
       </c>
     </row>
     <row r="17">
@@ -2527,19 +4777,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56.99512100219727</v>
+        <v>7.220077037811279</v>
       </c>
       <c r="D17" t="n">
-        <v>7.549511432647705</v>
+        <v>2.687020063400269</v>
       </c>
       <c r="E17" t="n">
-        <v>5.929556846618652</v>
+        <v>1.984996557235718</v>
       </c>
       <c r="F17" t="n">
-        <v>5.295818328857422</v>
+        <v>1.436291694641113</v>
       </c>
       <c r="G17" t="n">
-        <v>786.5467529296875</v>
+        <v>107.2098541259766</v>
       </c>
     </row>
     <row r="18">
@@ -2552,19 +4802,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56.96059417724609</v>
+        <v>7.210606098175049</v>
       </c>
       <c r="D18" t="n">
-        <v>7.547224044799805</v>
+        <v>2.685257196426392</v>
       </c>
       <c r="E18" t="n">
-        <v>5.927254676818848</v>
+        <v>1.983381867408752</v>
       </c>
       <c r="F18" t="n">
-        <v>5.293614387512207</v>
+        <v>1.434787392616272</v>
       </c>
       <c r="G18" t="n">
-        <v>786.5441284179688</v>
+        <v>107.2529067993164</v>
       </c>
     </row>
     <row r="19">
@@ -2577,19 +4827,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.92616271972656</v>
+        <v>7.201164722442627</v>
       </c>
       <c r="D19" t="n">
-        <v>7.544942855834961</v>
+        <v>2.683498620986938</v>
       </c>
       <c r="E19" t="n">
-        <v>5.924952507019043</v>
+        <v>1.981766939163208</v>
       </c>
       <c r="F19" t="n">
-        <v>5.291414737701416</v>
+        <v>1.433291673660278</v>
       </c>
       <c r="G19" t="n">
-        <v>786.5414428710938</v>
+        <v>107.2965240478516</v>
       </c>
     </row>
     <row r="20">
@@ -2602,19 +4852,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.89183044433594</v>
+        <v>7.191750049591064</v>
       </c>
       <c r="D20" t="n">
-        <v>7.542667388916016</v>
+        <v>2.681743860244751</v>
       </c>
       <c r="E20" t="n">
-        <v>5.92264986038208</v>
+        <v>1.980150580406189</v>
       </c>
       <c r="F20" t="n">
-        <v>5.289220809936523</v>
+        <v>1.431800603866577</v>
       </c>
       <c r="G20" t="n">
-        <v>786.5387573242188</v>
+        <v>107.3402481079102</v>
       </c>
     </row>
     <row r="21">
@@ -2627,19 +4877,769 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56.85761642456055</v>
+        <v>7.182374954223633</v>
       </c>
       <c r="D21" t="n">
-        <v>7.540399074554443</v>
+        <v>2.67999529838562</v>
       </c>
       <c r="E21" t="n">
-        <v>5.920352935791016</v>
+        <v>1.9785395860672</v>
       </c>
       <c r="F21" t="n">
-        <v>5.287033081054688</v>
+        <v>1.430320262908936</v>
       </c>
       <c r="G21" t="n">
-        <v>786.5362548828125</v>
+        <v>107.3848266601562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.173054218292236</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.678255796432495</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.976930260658264</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.428849816322327</v>
+      </c>
+      <c r="G22" t="n">
+        <v>107.4293518066406</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7.163768768310547</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.676521778106689</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.975321531295776</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.427388668060303</v>
+      </c>
+      <c r="G23" t="n">
+        <v>107.4745407104492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7.154505729675293</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.674790859222412</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.973707795143127</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.425930738449097</v>
+      </c>
+      <c r="G24" t="n">
+        <v>107.5198974609375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>7.145270347595215</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.6730637550354</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.972091794013977</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.424480319023132</v>
+      </c>
+      <c r="G25" t="n">
+        <v>107.5655670166016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7.136085987091064</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.671345233917236</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.970478057861328</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.42304003238678</v>
+      </c>
+      <c r="G26" t="n">
+        <v>107.6115188598633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7.126932621002197</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.669631481170654</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.968863010406494</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.4216068983078</v>
+      </c>
+      <c r="G27" t="n">
+        <v>107.6579132080078</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7.117815971374512</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.667923450469971</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.967245101928711</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.420180082321167</v>
+      </c>
+      <c r="G28" t="n">
+        <v>107.7045593261719</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7.108718872070312</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.666218042373657</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.965624570846558</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.418759107589722</v>
+      </c>
+      <c r="G29" t="n">
+        <v>107.7518615722656</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7.09968090057373</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.664522647857666</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.964007139205933</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.417350649833679</v>
+      </c>
+      <c r="G30" t="n">
+        <v>107.7994918823242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.090652465820312</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.662827968597412</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.962384462356567</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.415944933891296</v>
+      </c>
+      <c r="G31" t="n">
+        <v>107.8472290039062</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>7.081661701202393</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.661139249801636</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.960761189460754</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.414547443389893</v>
+      </c>
+      <c r="G32" t="n">
+        <v>107.8954925537109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7.072715282440186</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.659457683563232</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.959136486053467</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.413157820701599</v>
+      </c>
+      <c r="G33" t="n">
+        <v>107.9441070556641</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7.063799858093262</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.657780885696411</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.957513213157654</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.41177773475647</v>
+      </c>
+      <c r="G34" t="n">
+        <v>107.9933624267578</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7.054914474487305</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.656108856201172</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.955884218215942</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.410401701927185</v>
+      </c>
+      <c r="G35" t="n">
+        <v>108.0428085327148</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7.046069622039795</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.654443264007568</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.954255819320679</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.409034848213196</v>
+      </c>
+      <c r="G36" t="n">
+        <v>108.0926132202148</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7.037266254425049</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.652784585952759</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.952627897262573</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.407677292823792</v>
+      </c>
+      <c r="G37" t="n">
+        <v>108.1423492431641</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>7.028480529785156</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.651128053665161</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.950997591018677</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.406325578689575</v>
+      </c>
+      <c r="G38" t="n">
+        <v>108.1890029907227</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7.019723415374756</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.649476051330566</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.94936466217041</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.404980063438416</v>
+      </c>
+      <c r="G39" t="n">
+        <v>108.2359619140625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7.011013507843018</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.647831916809082</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.9477299451828</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.403642654418945</v>
+      </c>
+      <c r="G40" t="n">
+        <v>108.2833786010742</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7.002338409423828</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.646193265914917</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.94609808921814</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.402315497398376</v>
+      </c>
+      <c r="G41" t="n">
+        <v>108.3312225341797</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6.993779182434082</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.644575357437134</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.944489598274231</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.401006817817688</v>
+      </c>
+      <c r="G42" t="n">
+        <v>108.3796234130859</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6.985241889953613</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.642960786819458</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.94287896156311</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.399705648422241</v>
+      </c>
+      <c r="G43" t="n">
+        <v>108.4287567138672</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6.976748466491699</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.641353607177734</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.941327929496765</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.398414492607117</v>
+      </c>
+      <c r="G44" t="n">
+        <v>108.4781875610352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6.968790054321289</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.639846563339233</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.939959406852722</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.397228956222534</v>
+      </c>
+      <c r="G45" t="n">
+        <v>108.5185394287109</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6.960858821868896</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.638344049453735</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.938587427139282</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.396047949790955</v>
+      </c>
+      <c r="G46" t="n">
+        <v>108.5591430664062</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.952948570251465</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.636844396591187</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.937215805053711</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.3948734998703</v>
+      </c>
+      <c r="G47" t="n">
+        <v>108.6002349853516</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6.945064067840576</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.635349035263062</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.935870409011841</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.393706560134888</v>
+      </c>
+      <c r="G48" t="n">
+        <v>108.6417694091797</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.937649250030518</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.633941888809204</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.934664487838745</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.392621278762817</v>
+      </c>
+      <c r="G49" t="n">
+        <v>108.6743087768555</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6.930243968963623</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.632535696029663</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.933456182479858</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.391539096832275</v>
+      </c>
+      <c r="G50" t="n">
+        <v>108.7070465087891</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6.922868251800537</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.631134510040283</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.932250022888184</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.390464544296265</v>
+      </c>
+      <c r="G51" t="n">
+        <v>108.7400588989258</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,19 +5708,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57.52859115600586</v>
+        <v>280.0605773925781</v>
       </c>
       <c r="D2" t="n">
-        <v>7.584760665893555</v>
+        <v>16.73501014709473</v>
       </c>
       <c r="E2" t="n">
-        <v>5.964481353759766</v>
+        <v>3.49083399772644</v>
       </c>
       <c r="F2" t="n">
-        <v>5.329714298248291</v>
+        <v>2.933542966842651</v>
       </c>
       <c r="G2" t="n">
-        <v>786.5835571289062</v>
+        <v>544.7871704101562</v>
       </c>
     </row>
     <row r="3">
@@ -2733,19 +5733,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.49256134033203</v>
+        <v>136.9996032714844</v>
       </c>
       <c r="D3" t="n">
-        <v>7.582385063171387</v>
+        <v>11.70468330383301</v>
       </c>
       <c r="E3" t="n">
-        <v>5.962147235870361</v>
+        <v>2.732394933700562</v>
       </c>
       <c r="F3" t="n">
-        <v>5.327443599700928</v>
+        <v>2.178142070770264</v>
       </c>
       <c r="G3" t="n">
-        <v>786.583984375</v>
+        <v>199.0125885009766</v>
       </c>
     </row>
     <row r="4">
@@ -2758,19 +5758,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.456787109375</v>
+        <v>136.9890441894531</v>
       </c>
       <c r="D4" t="n">
-        <v>7.580025672912598</v>
+        <v>11.70423221588135</v>
       </c>
       <c r="E4" t="n">
-        <v>5.959825038909912</v>
+        <v>2.730413198471069</v>
       </c>
       <c r="F4" t="n">
-        <v>5.325188159942627</v>
+        <v>2.176424980163574</v>
       </c>
       <c r="G4" t="n">
-        <v>786.583740234375</v>
+        <v>198.9306488037109</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +5783,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.42111206054688</v>
+        <v>136.9785614013672</v>
       </c>
       <c r="D5" t="n">
-        <v>7.577672004699707</v>
+        <v>11.70378398895264</v>
       </c>
       <c r="E5" t="n">
-        <v>5.957501888275146</v>
+        <v>2.728523731231689</v>
       </c>
       <c r="F5" t="n">
-        <v>5.322938442230225</v>
+        <v>2.174727439880371</v>
       </c>
       <c r="G5" t="n">
-        <v>786.5836791992188</v>
+        <v>198.8496246337891</v>
       </c>
     </row>
     <row r="6">
@@ -2808,19 +5808,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.38563919067383</v>
+        <v>136.9681396484375</v>
       </c>
       <c r="D6" t="n">
-        <v>7.57533073425293</v>
+        <v>11.70333862304688</v>
       </c>
       <c r="E6" t="n">
-        <v>5.955196380615234</v>
+        <v>2.726747751235962</v>
       </c>
       <c r="F6" t="n">
-        <v>5.320700168609619</v>
+        <v>2.173047542572021</v>
       </c>
       <c r="G6" t="n">
-        <v>786.5836181640625</v>
+        <v>198.7690582275391</v>
       </c>
     </row>
     <row r="7">
@@ -2833,19 +5833,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.35026168823242</v>
+        <v>136.9578399658203</v>
       </c>
       <c r="D7" t="n">
-        <v>7.572995662689209</v>
+        <v>11.70289897918701</v>
       </c>
       <c r="E7" t="n">
-        <v>5.952924728393555</v>
+        <v>2.724982261657715</v>
       </c>
       <c r="F7" t="n">
-        <v>5.31846809387207</v>
+        <v>2.171387434005737</v>
       </c>
       <c r="G7" t="n">
-        <v>786.583740234375</v>
+        <v>198.6886444091797</v>
       </c>
     </row>
     <row r="8">
@@ -2858,19 +5858,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.3150749206543</v>
+        <v>136.9476470947266</v>
       </c>
       <c r="D8" t="n">
-        <v>7.570672035217285</v>
+        <v>11.70246315002441</v>
       </c>
       <c r="E8" t="n">
-        <v>5.950659275054932</v>
+        <v>2.723225831985474</v>
       </c>
       <c r="F8" t="n">
-        <v>5.316247940063477</v>
+        <v>2.169745445251465</v>
       </c>
       <c r="G8" t="n">
-        <v>786.5833740234375</v>
+        <v>198.6089019775391</v>
       </c>
     </row>
     <row r="9">
@@ -2883,19 +5883,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.28004455566406</v>
+        <v>136.9375457763672</v>
       </c>
       <c r="D9" t="n">
-        <v>7.568357944488525</v>
+        <v>11.7020320892334</v>
       </c>
       <c r="E9" t="n">
-        <v>5.948400020599365</v>
+        <v>2.721477031707764</v>
       </c>
       <c r="F9" t="n">
-        <v>5.314034938812256</v>
+        <v>2.168120384216309</v>
       </c>
       <c r="G9" t="n">
-        <v>786.5834350585938</v>
+        <v>198.5292816162109</v>
       </c>
     </row>
     <row r="10">
@@ -2908,19 +5908,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57.24521255493164</v>
+        <v>136.9275360107422</v>
       </c>
       <c r="D10" t="n">
-        <v>7.566056728363037</v>
+        <v>11.70160388946533</v>
       </c>
       <c r="E10" t="n">
-        <v>5.946154117584229</v>
+        <v>2.719738960266113</v>
       </c>
       <c r="F10" t="n">
-        <v>5.311835765838623</v>
+        <v>2.166513919830322</v>
       </c>
       <c r="G10" t="n">
-        <v>786.5835571289062</v>
+        <v>198.4503631591797</v>
       </c>
     </row>
     <row r="11">
@@ -2933,19 +5933,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57.21055221557617</v>
+        <v>136.9176025390625</v>
       </c>
       <c r="D11" t="n">
-        <v>7.563765525817871</v>
+        <v>11.70117950439453</v>
       </c>
       <c r="E11" t="n">
-        <v>5.943911075592041</v>
+        <v>2.718008995056152</v>
       </c>
       <c r="F11" t="n">
-        <v>5.30964469909668</v>
+        <v>2.164924144744873</v>
       </c>
       <c r="G11" t="n">
-        <v>786.5839233398438</v>
+        <v>198.3719635009766</v>
       </c>
     </row>
     <row r="12">
@@ -2958,19 +5958,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57.17605209350586</v>
+        <v>136.9077758789062</v>
       </c>
       <c r="D12" t="n">
-        <v>7.561484813690186</v>
+        <v>11.70075988769531</v>
       </c>
       <c r="E12" t="n">
-        <v>5.941673278808594</v>
+        <v>2.716291666030884</v>
       </c>
       <c r="F12" t="n">
-        <v>5.307464122772217</v>
+        <v>2.163354873657227</v>
       </c>
       <c r="G12" t="n">
-        <v>786.5836181640625</v>
+        <v>198.2937164306641</v>
       </c>
     </row>
     <row r="13">
@@ -2983,19 +5983,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57.14168167114258</v>
+        <v>136.8980255126953</v>
       </c>
       <c r="D13" t="n">
-        <v>7.559211730957031</v>
+        <v>11.70034313201904</v>
       </c>
       <c r="E13" t="n">
-        <v>5.939437389373779</v>
+        <v>2.714579820632935</v>
       </c>
       <c r="F13" t="n">
-        <v>5.305290222167969</v>
+        <v>2.161798238754272</v>
       </c>
       <c r="G13" t="n">
-        <v>786.5834350585938</v>
+        <v>198.2160186767578</v>
       </c>
     </row>
     <row r="14">
@@ -3008,19 +6008,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57.10752105712891</v>
+        <v>136.8883819580078</v>
       </c>
       <c r="D14" t="n">
-        <v>7.556951999664307</v>
+        <v>11.69993114471436</v>
       </c>
       <c r="E14" t="n">
-        <v>5.937210559844971</v>
+        <v>2.712883472442627</v>
       </c>
       <c r="F14" t="n">
-        <v>5.303128719329834</v>
+        <v>2.160258531570435</v>
       </c>
       <c r="G14" t="n">
-        <v>786.58349609375</v>
+        <v>198.1432647705078</v>
       </c>
     </row>
     <row r="15">
@@ -3033,19 +6033,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.07345199584961</v>
+        <v>136.8787689208984</v>
       </c>
       <c r="D15" t="n">
-        <v>7.554697513580322</v>
+        <v>11.69952011108398</v>
       </c>
       <c r="E15" t="n">
-        <v>5.934983730316162</v>
+        <v>2.7111976146698</v>
       </c>
       <c r="F15" t="n">
-        <v>5.300972938537598</v>
+        <v>2.158736705780029</v>
       </c>
       <c r="G15" t="n">
-        <v>786.583740234375</v>
+        <v>198.0709686279297</v>
       </c>
     </row>
     <row r="16">
@@ -3058,19 +6058,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.03960800170898</v>
+        <v>136.8692474365234</v>
       </c>
       <c r="D16" t="n">
-        <v>7.552456855773926</v>
+        <v>11.69911289215088</v>
       </c>
       <c r="E16" t="n">
-        <v>5.932767391204834</v>
+        <v>2.709520578384399</v>
       </c>
       <c r="F16" t="n">
-        <v>5.298831939697266</v>
+        <v>2.157230377197266</v>
       </c>
       <c r="G16" t="n">
-        <v>786.583740234375</v>
+        <v>197.9989776611328</v>
       </c>
     </row>
     <row r="17">
@@ -3083,19 +6083,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>57.00586700439453</v>
+        <v>136.8598480224609</v>
       </c>
       <c r="D17" t="n">
-        <v>7.550222873687744</v>
+        <v>11.69871139526367</v>
       </c>
       <c r="E17" t="n">
-        <v>5.930551052093506</v>
+        <v>2.707893371582031</v>
       </c>
       <c r="F17" t="n">
-        <v>5.296696186065674</v>
+        <v>2.155738830566406</v>
       </c>
       <c r="G17" t="n">
-        <v>786.5834350585938</v>
+        <v>197.9275054931641</v>
       </c>
     </row>
     <row r="18">
@@ -3108,19 +6108,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56.97226715087891</v>
+        <v>136.8504638671875</v>
       </c>
       <c r="D18" t="n">
-        <v>7.54799747467041</v>
+        <v>11.69830989837646</v>
       </c>
       <c r="E18" t="n">
-        <v>5.928336620330811</v>
+        <v>2.706374168395996</v>
       </c>
       <c r="F18" t="n">
-        <v>5.294567584991455</v>
+        <v>2.154262542724609</v>
       </c>
       <c r="G18" t="n">
-        <v>786.5833740234375</v>
+        <v>197.8564300537109</v>
       </c>
     </row>
     <row r="19">
@@ -3133,19 +6133,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>56.9388542175293</v>
+        <v>136.8412322998047</v>
       </c>
       <c r="D19" t="n">
-        <v>7.545783996582031</v>
+        <v>11.69791603088379</v>
       </c>
       <c r="E19" t="n">
-        <v>5.926129341125488</v>
+        <v>2.704865455627441</v>
       </c>
       <c r="F19" t="n">
-        <v>5.292449951171875</v>
+        <v>2.152804613113403</v>
       </c>
       <c r="G19" t="n">
-        <v>786.5836791992188</v>
+        <v>197.7859039306641</v>
       </c>
     </row>
     <row r="20">
@@ -3158,19 +6158,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.90553665161133</v>
+        <v>136.83203125</v>
       </c>
       <c r="D20" t="n">
-        <v>7.543575763702393</v>
+        <v>11.69752216339111</v>
       </c>
       <c r="E20" t="n">
-        <v>5.923923015594482</v>
+        <v>2.703361511230469</v>
       </c>
       <c r="F20" t="n">
-        <v>5.290337562561035</v>
+        <v>2.151359796524048</v>
       </c>
       <c r="G20" t="n">
-        <v>786.5841064453125</v>
+        <v>197.7157135009766</v>
       </c>
     </row>
     <row r="21">
@@ -3183,19 +6183,769 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56.87241363525391</v>
+        <v>136.8229370117188</v>
       </c>
       <c r="D21" t="n">
-        <v>7.541379928588867</v>
+        <v>11.69713401794434</v>
       </c>
       <c r="E21" t="n">
-        <v>5.921724319458008</v>
+        <v>2.701866149902344</v>
       </c>
       <c r="F21" t="n">
-        <v>5.288238048553467</v>
+        <v>2.149931192398071</v>
       </c>
       <c r="G21" t="n">
-        <v>786.5839233398438</v>
+        <v>197.6457672119141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>136.8139190673828</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.69674777984619</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.700378179550171</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.148517608642578</v>
+      </c>
+      <c r="G22" t="n">
+        <v>197.5766754150391</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>136.8049468994141</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.696364402771</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.698894500732422</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.147116184234619</v>
+      </c>
+      <c r="G23" t="n">
+        <v>197.5075836181641</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>136.7960662841797</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.69598484039307</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.697420120239258</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.145731449127197</v>
+      </c>
+      <c r="G24" t="n">
+        <v>197.4390716552734</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>136.7872619628906</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.6956090927124</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.695952892303467</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.144360780715942</v>
+      </c>
+      <c r="G25" t="n">
+        <v>197.3710174560547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>136.778564453125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.695237159729</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.694491386413574</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.143003463745117</v>
+      </c>
+      <c r="G26" t="n">
+        <v>197.3030548095703</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>136.7698822021484</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11.69486522674561</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.693035125732422</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.141658067703247</v>
+      </c>
+      <c r="G27" t="n">
+        <v>197.2358551025391</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>136.7613220214844</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.69449996948242</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.691588640213013</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.140328884124756</v>
+      </c>
+      <c r="G28" t="n">
+        <v>197.1685333251953</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>136.7527923583984</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.69413471221924</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.690147638320923</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.139011859893799</v>
+      </c>
+      <c r="G29" t="n">
+        <v>197.1022491455078</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>136.7443389892578</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.69377326965332</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.688712120056152</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.137706756591797</v>
+      </c>
+      <c r="G30" t="n">
+        <v>197.0359649658203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>136.7359466552734</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11.69341468811035</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.687284231185913</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.136415481567383</v>
+      </c>
+      <c r="G31" t="n">
+        <v>196.9700164794922</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>136.7276611328125</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.69305992126465</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.685864925384521</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.135138988494873</v>
+      </c>
+      <c r="G32" t="n">
+        <v>196.9046173095703</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>136.7194061279297</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.69270706176758</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.684448719024658</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.133871555328369</v>
+      </c>
+      <c r="G33" t="n">
+        <v>196.8393707275391</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>136.7112121582031</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.69235706329346</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.683040142059326</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.132617473602295</v>
+      </c>
+      <c r="G34" t="n">
+        <v>196.7745819091797</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>136.7031097412109</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.6920108795166</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.681638717651367</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.131376266479492</v>
+      </c>
+      <c r="G35" t="n">
+        <v>196.7104034423828</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>136.6950531005859</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.69166564941406</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.680246591567993</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.130146980285645</v>
+      </c>
+      <c r="G36" t="n">
+        <v>196.6464385986328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>136.6870574951172</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11.69132423400879</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.678859233856201</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.128927707672119</v>
+      </c>
+      <c r="G37" t="n">
+        <v>196.5829010009766</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>136.6791229248047</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.69098472595215</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.677481412887573</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.127722978591919</v>
+      </c>
+      <c r="G38" t="n">
+        <v>196.5198822021484</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>136.6712493896484</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.69064807891846</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.67610764503479</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.126527309417725</v>
+      </c>
+      <c r="G39" t="n">
+        <v>196.4570465087891</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7.034631729125977</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.65228796005249</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.954660534858704</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.40803587436676</v>
+      </c>
+      <c r="G40" t="n">
+        <v>107.7943878173828</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7.026886463165283</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.650827407836914</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.953300595283508</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.406864643096924</v>
+      </c>
+      <c r="G41" t="n">
+        <v>107.8269958496094</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7.019179344177246</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.649373292922974</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.951945662498474</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.405702114105225</v>
+      </c>
+      <c r="G42" t="n">
+        <v>107.8556976318359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7.011528015136719</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.647928953170776</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.950595378875732</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.404549360275269</v>
+      </c>
+      <c r="G43" t="n">
+        <v>107.8843078613281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7.003950595855713</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.64649772644043</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.949261069297791</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.403408169746399</v>
+      </c>
+      <c r="G44" t="n">
+        <v>107.9126586914062</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6.996420383453369</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.645074844360352</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.947938442230225</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.402278900146484</v>
+      </c>
+      <c r="G45" t="n">
+        <v>107.9407424926758</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6.988935947418213</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.643659591674805</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.946619987487793</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.401158213615417</v>
+      </c>
+      <c r="G46" t="n">
+        <v>107.9688339233398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.981512069702148</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.642255067825317</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.94530713558197</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.400047183036804</v>
+      </c>
+      <c r="G47" t="n">
+        <v>107.9965362548828</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6.974130153656006</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.640857934951782</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.943998456001282</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.398944973945618</v>
+      </c>
+      <c r="G48" t="n">
+        <v>108.0243835449219</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6.966811656951904</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.639471769332886</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.942750096321106</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.397854089736938</v>
+      </c>
+      <c r="G49" t="n">
+        <v>108.0517807006836</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6.959534645080566</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.638092994689941</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.941556572914124</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.396773219108582</v>
+      </c>
+      <c r="G50" t="n">
+        <v>108.0791244506836</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6.952317714691162</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.636724710464478</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.940367102622986</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.395701169967651</v>
+      </c>
+      <c r="G51" t="n">
+        <v>108.1064453125</v>
       </c>
     </row>
   </sheetData>
